--- a/procesamiento de etiquetas/Datos generados para la app/Formaciones Reserva 2022.xlsx
+++ b/procesamiento de etiquetas/Datos generados para la app/Formaciones Reserva 2022.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="70">
   <si>
     <t>Partido</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Newells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flores </t>
+  </si>
+  <si>
+    <t>Central Cordoba</t>
   </si>
 </sst>
 </file>
@@ -512,6 +518,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="13.63"/>
     <col customWidth="1" min="2" max="2" width="14.38"/>
   </cols>
   <sheetData>
@@ -5564,6 +5571,533 @@
         <v>63</v>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B299" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B300" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B301" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B302" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B303" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B304" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B305" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B306" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B307" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B308" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B309" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B310" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B311" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B312" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B313" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B315" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B316" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B317" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B318" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B319" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B320" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B321" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B322" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B323" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B324" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B325" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B326" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B327" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B328" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
